--- a/data/trans_camb/P74B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Edad-trans_camb.xlsx
@@ -641,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-40.19090561873566</v>
+        <v>-41.18319111993956</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-52.42555025589684</v>
+        <v>-55.69515564683306</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.539823395008995</v>
+        <v>-2.549786405344078</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9723581597448778</v>
+        <v>-2.602647643248299</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.69431046858944</v>
+        <v>19.84356852636051</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>34.53546320487742</v>
+        <v>39.98474026951411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.88949515087063</v>
+        <v>27.02548708778925</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.699450971324946</v>
+        <v>8.514119525298716</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.30290679988472</v>
+        <v>18.49382100832362</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.73140637837872</v>
+        <v>18.87911192926956</v>
       </c>
     </row>
     <row r="7">
@@ -775,22 +775,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.872472083399016</v>
+        <v>-4.707696144530339</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.129218267705712</v>
+        <v>-1.391227315251884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15.14966870601688</v>
+        <v>15.9581547159201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.911325201202111</v>
+        <v>6.640419980986599</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.86568378459986</v>
+        <v>3.46683010436475</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.254979347849955</v>
+        <v>1.144813230198393</v>
       </c>
     </row>
     <row r="12">
@@ -801,22 +801,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8594426657456956</v>
+        <v>0.8848584578394034</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.181012605328036</v>
+        <v>6.887479559345245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37.33883632870107</v>
+        <v>36.46039453767699</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28.31082734255986</v>
+        <v>27.89491816024386</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.56408906454578</v>
+        <v>13.56123080206194</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.484611745762212</v>
+        <v>9.572184398575063</v>
       </c>
     </row>
     <row r="13">
@@ -858,15 +858,15 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>-0.5367833373795858</v>
+        <v>-0.5959406307948745</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>0.5125472704877495</v>
+        <v>0.3511619657641163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02870328244445058</v>
+        <v>-0.1025997044249173</v>
       </c>
     </row>
     <row r="15">
@@ -878,15 +878,15 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>9.881131416846383</v>
+        <v>12.49715696391763</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>21.75904839987961</v>
+        <v>21.36006960779162</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14.78677621470188</v>
+        <v>14.73413122244294</v>
       </c>
     </row>
     <row r="16">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.411104424171992</v>
+        <v>1.60193197927241</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.552476648296116</v>
+        <v>1.838817969509386</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-28.0167115978793</v>
+        <v>-28.8263032999617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-26.63756203303972</v>
+        <v>-26.78503930340289</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.5868032026025629</v>
+        <v>-0.5028745642648489</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5360436698870422</v>
+        <v>0.2574297598907934</v>
       </c>
     </row>
     <row r="18">
@@ -953,22 +953,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.310419994958841</v>
+        <v>6.644632019732484</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.49683765113596</v>
+        <v>7.848841620579268</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.725036708159546</v>
+        <v>1.777613092072791</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.088689553848035</v>
+        <v>4.356167141488631</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.357534786744374</v>
+        <v>7.070277504176699</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.430014161323378</v>
+        <v>8.425989355035911</v>
       </c>
     </row>
     <row r="19">
@@ -1007,16 +1007,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.6594180961606051</v>
+        <v>-0.675201657384544</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.627004285413769</v>
+        <v>-0.6454017481065565</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1019446747851609</v>
+        <v>-0.1197517409780612</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04016063001004603</v>
+        <v>-0.02050882719046986</v>
       </c>
     </row>
     <row r="21">
@@ -1029,16 +1029,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>0.2036369290178655</v>
+        <v>0.1213899065942825</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2998768592503677</v>
+        <v>0.2495217539003926</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.412634857942445</v>
+        <v>2.458016232592618</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.782034248862107</v>
+        <v>2.620770422896478</v>
       </c>
     </row>
     <row r="22">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.472476097180893</v>
+        <v>-1.558130917432697</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.0971595102405912</v>
+        <v>-0.5327638363507726</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-41.5974845731519</v>
+        <v>-40.53105390115959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-54.90574892820818</v>
+        <v>-54.97859336537259</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.177456467235085</v>
+        <v>-4.173947182630782</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.886666105842879</v>
+        <v>-7.914160719177818</v>
       </c>
     </row>
     <row r="24">
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.317394519942656</v>
+        <v>4.138102405153889</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.999189182705807</v>
+        <v>6.401571148824843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.85904097268845</v>
+        <v>-12.2645311993345</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-29.11472785209672</v>
+        <v>-28.79242514818018</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.851908202552102</v>
+        <v>6.477685080635965</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.428116532049599</v>
+        <v>2.352543869968422</v>
       </c>
     </row>
     <row r="25">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5069109550317817</v>
+        <v>-0.5530312623351057</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2334369770741806</v>
+        <v>-0.4054359022626317</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5256589548738186</v>
+        <v>-0.5322092941350082</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7211969599516926</v>
+        <v>-0.7158025752637208</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2335296052668811</v>
+        <v>-0.2234473666759914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4314194828889687</v>
+        <v>-0.4306855737899761</v>
       </c>
     </row>
     <row r="27">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.223736522332464</v>
+        <v>3.522078281480622</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.09120699392067</v>
+        <v>4.854323046992017</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1800163947045533</v>
+        <v>-0.19922857091035</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.457388611149444</v>
+        <v>-0.463116462565011</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5418581988417407</v>
+        <v>0.5061624423488476</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1838614234563822</v>
+        <v>0.1873191470320337</v>
       </c>
     </row>
     <row r="28">
@@ -1239,22 +1239,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.376255109732723</v>
+        <v>-4.495363172364745</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.35000343236065</v>
+        <v>-5.078363042733545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.419856363651649</v>
+        <v>-9.564777323093324</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-14.29138402057983</v>
+        <v>-14.26914113961876</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.338585058749605</v>
+        <v>-1.165623157839049</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.18129817807114</v>
+        <v>-5.057842492893379</v>
       </c>
     </row>
     <row r="30">
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.894064130655688</v>
+        <v>5.890855340982283</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.658179605394621</v>
+        <v>5.14138864211745</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.334305759109866</v>
+        <v>4.448680507712767</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.057897087885948</v>
+        <v>1.385908432254716</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.49131566922447</v>
+        <v>11.2006494352017</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.244073899772159</v>
+        <v>8.172566014313379</v>
       </c>
     </row>
     <row r="31">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.432993236825512</v>
+        <v>-0.4072613919892469</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4247583020119097</v>
+        <v>-0.4745939260373371</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1051652431061034</v>
+        <v>-0.1057222510960213</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1603611313060971</v>
+        <v>-0.1581283003508929</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03119990492627712</v>
+        <v>-0.02609629888188526</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1012679455319425</v>
+        <v>-0.1229378013894551</v>
       </c>
     </row>
     <row r="33">
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9859417500664394</v>
+        <v>1.035991453730114</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9677123503130095</v>
+        <v>0.8649513232755972</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.05148759573293622</v>
+        <v>0.05269504555631849</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01259765172739713</v>
+        <v>0.01661056771711693</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.34401070045806</v>
+        <v>0.3192978949022679</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2391601922870886</v>
+        <v>0.234674756341649</v>
       </c>
     </row>
     <row r="34">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.437755199337181</v>
+        <v>2.178468710934926</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.348750267617975</v>
+        <v>1.468685227826647</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.85753003707099</v>
+        <v>-3.245624336743541</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.6980921639659597</v>
+        <v>0.5211794345647525</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.45473434567969</v>
+        <v>-0.6628602202409638</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.651712982474295</v>
+        <v>2.307871405305336</v>
       </c>
     </row>
     <row r="36">
@@ -1425,22 +1425,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.07363749151033</v>
+        <v>17.72047566173248</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.569393164694</v>
+        <v>16.01446115096454</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.052111335565127</v>
+        <v>4.599633356089854</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.523797047680961</v>
+        <v>6.542115956249297</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.92367186753004</v>
+        <v>11.64086198790354</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>14.13016967871927</v>
+        <v>14.03593003842665</v>
       </c>
     </row>
     <row r="37">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1258414557866448</v>
+        <v>0.07750419016446852</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.06027631377144169</v>
+        <v>0.06764775743806783</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.03942686525481617</v>
+        <v>-0.03352569819506334</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.00765559637663873</v>
+        <v>0.005307931568127488</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.02798512465167006</v>
+        <v>-0.01033105821288875</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03149975014045985</v>
+        <v>0.03865134040994899</v>
       </c>
     </row>
     <row r="39">
@@ -1503,22 +1503,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.212572626774733</v>
+        <v>1.136553163389995</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.12309505373124</v>
+        <v>1.054690342477929</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.0436428624993871</v>
+        <v>0.04881752645047678</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.07052312073923826</v>
+        <v>0.07060798740628041</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2331530550902822</v>
+        <v>0.2312487344697671</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2899733465918002</v>
+        <v>0.280119656111222</v>
       </c>
     </row>
     <row r="40">
@@ -1559,22 +1559,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4.406397409405389</v>
+        <v>5.86618952580926</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.8300474597555514</v>
+        <v>-0.5810989310001609</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.5769907517492679</v>
+        <v>0.2894165783102974</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.371526682084535</v>
+        <v>-1.350689668457269</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.476018537798366</v>
+        <v>3.679414118699693</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.252727296517767</v>
+        <v>1.31586708713812</v>
       </c>
     </row>
     <row r="42">
@@ -1585,22 +1585,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.51857628969868</v>
+        <v>26.89586976191058</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>18.73116213428216</v>
+        <v>19.3988473406761</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11.63274716841738</v>
+        <v>9.844734602698722</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.744074464644664</v>
+        <v>9.483509976174222</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>21.25903661042722</v>
+        <v>20.70325375134947</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>18.41682211851131</v>
+        <v>17.30604662313823</v>
       </c>
     </row>
     <row r="43">
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1729753626415465</v>
+        <v>0.2260793543760063</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.0280879561880952</v>
+        <v>-0.02500763603219004</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.005912470462102375</v>
+        <v>0.002961470078454861</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01346654538518822</v>
+        <v>-0.01277547455289207</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.08036977906410665</v>
+        <v>0.06334770595803477</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02253135188269512</v>
+        <v>0.02261100581256992</v>
       </c>
     </row>
     <row r="45">
@@ -1663,22 +1663,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.755566568862849</v>
+        <v>1.896468698822378</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.236808503335506</v>
+        <v>1.42498196118453</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1318806833492665</v>
+        <v>0.1095886703047282</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1106379365508734</v>
+        <v>0.1107823015383893</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4628959829962255</v>
+        <v>0.4344729910953816</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3852830947787213</v>
+        <v>0.3596789300652869</v>
       </c>
     </row>
     <row r="46">
@@ -1719,22 +1719,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.590709354987594</v>
+        <v>2.577593440924996</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.730589310541826</v>
+        <v>2.470206977722226</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-19.4782350497656</v>
+        <v>-19.18628273635657</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-21.14928753904784</v>
+        <v>-21.35775448904167</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.581315608124065</v>
+        <v>1.585378498726788</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.5742528020476774</v>
+        <v>0.6613155695823716</v>
       </c>
     </row>
     <row r="48">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>7.427830559759756</v>
+        <v>7.375497081499015</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.173830043396075</v>
+        <v>7.023418173726522</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-10.16093471205363</v>
+        <v>-10.60902133358553</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-12.24097643204549</v>
+        <v>-12.21203976366374</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.400297425403002</v>
+        <v>7.452161389958648</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.282857135794797</v>
+        <v>6.529553113976815</v>
       </c>
     </row>
     <row r="49">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2895534197127685</v>
+        <v>0.3023909270040445</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2997282588130495</v>
+        <v>0.2881899941817123</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2314411099316071</v>
+        <v>-0.2247801865012078</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2502378926641773</v>
+        <v>-0.2502259981051022</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05169966826170003</v>
+        <v>0.0508656471275783</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01864411514973913</v>
+        <v>0.02097000601829263</v>
       </c>
     </row>
     <row r="51">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.165610797628894</v>
+        <v>1.123290734967819</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.086669515173662</v>
+        <v>1.076733949511451</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1265163409869503</v>
+        <v>-0.1304705232653952</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1510326478983651</v>
+        <v>-0.1504977650063318</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2596903223570888</v>
+        <v>0.2579337663948753</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2197890106933617</v>
+        <v>0.2252158862372846</v>
       </c>
     </row>
     <row r="52">
